--- a/Luban/MiniTemplate/Datas/pet.xlsx
+++ b/Luban/MiniTemplate/Datas/pet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JLTech\Documents\UnityProjects\SKnight\Luban\MiniTemplate\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A473B57-6EA3-47C8-AEAC-C09744252B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EAE7D0-10B3-47A2-A1E6-492B95C781F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="150" windowWidth="23010" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -536,7 +536,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -633,7 +633,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="11">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F5" s="11">
         <v>2</v>

--- a/Luban/MiniTemplate/Datas/pet.xlsx
+++ b/Luban/MiniTemplate/Datas/pet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JLTech\Documents\UnityProjects\SKnight\Luban\MiniTemplate\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EAE7D0-10B3-47A2-A1E6-492B95C781F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C20A48-B7DC-404D-9419-0A17BFD6C820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="150" windowWidth="23010" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -536,7 +536,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomRight" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
